--- a/MapaViolencia2012_mulheres.xlsx
+++ b/MapaViolencia2012_mulheres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliza\Documents\eliza_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t> Acre</t>
   </si>
@@ -40,20 +40,6 @@
     <t> Amazonas</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bahia</t>
-    </r>
-  </si>
-  <si>
     <t> Ceará</t>
   </si>
   <si>
@@ -84,20 +70,6 @@
     <t> Paraíba</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pará</t>
-    </r>
-  </si>
-  <si>
     <t> Pernambuco</t>
   </si>
   <si>
@@ -210,6 +182,54 @@
   </si>
   <si>
     <t>Taxa_Feminicidio</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>6.9</t>
   </si>
 </sst>
 </file>
@@ -223,25 +243,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0B0080"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -265,6 +266,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -272,12 +290,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -300,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,37 +361,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2171,405 +2195,412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="18.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21" style="13" customWidth="1"/>
+    <col min="4" max="4" width="28" style="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C10" s="11">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.749</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D16" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.746</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12.9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D24" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.749</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.746</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
+  <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Acre" display="https://pt.wikipedia.org/wiki/Acre"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="Alagoas" display="https://pt.wikipedia.org/wiki/Alagoas"/>
@@ -2598,6 +2629,7 @@
     <hyperlink ref="A28" r:id="rId25" tooltip="Tocantins" display="https://pt.wikipedia.org/wiki/Tocantins"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -2612,224 +2644,224 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="2">
         <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.73499999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.63900000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.65800000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.76100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="3">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B26" s="3">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.78300000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="B27" s="2">
         <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
